--- a/xlsx_import/example.xlsx
+++ b/xlsx_import/example.xlsx
@@ -10,9 +10,10 @@
     <sheet name="指示書" sheetId="152" r:id="rId1"/>
     <sheet name="在庫一覧表" sheetId="186" r:id="rId2"/>
     <sheet name="納品書" sheetId="261" r:id="rId3"/>
+    <sheet name="画像とバーコード" sheetId="262" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_JOB2">[1]表紙!#REF!</definedName>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -673,6 +674,29 @@
     <rPh sb="2" eb="3">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#IMAGE#image;.ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バーコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#BARCODE#qrcode;.CD2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#BARCODE#ean8;.CD1;00000000</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1058,7 +1082,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,6 +1403,9 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -3833,4 +3860,133 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="C15" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:E8"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C15:E24"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xlsx_import/example.xlsx
+++ b/xlsx_import/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1395" windowWidth="15480" windowHeight="11370" tabRatio="703"/>
+    <workbookView xWindow="1155" yWindow="1395" windowWidth="15480" windowHeight="11370" tabRatio="703" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="指示書" sheetId="152" r:id="rId1"/>
@@ -216,7 +216,8 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>明細</t>
+          <t>明細
+detail</t>
         </r>
       </text>
     </comment>
@@ -1193,6 +1194,42 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1202,15 +1239,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1220,15 +1248,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1250,15 +1269,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,14 +1281,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1288,93 +1310,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="12" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1390,18 +1325,84 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="12" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1490,7 +1491,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1534,7 +1535,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1864,7 +1865,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AR12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
   <cols>
@@ -1873,32 +1874,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="AA1" s="68" t="s">
+      <c r="AA1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="70" t="s">
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="68" t="s">
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68" t="s">
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="10"/>
@@ -1918,17 +1919,17 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
@@ -1960,214 +1961,214 @@
       <c r="AO3" s="8"/>
     </row>
     <row r="4" spans="1:44" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="51" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="45" t="s">
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="47"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="53"/>
     </row>
     <row r="5" spans="1:44" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="45" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="51" t="s">
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="61" t="s">
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="63"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="44"/>
     </row>
     <row r="6" spans="1:44" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="61" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="51" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="63"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="44"/>
     </row>
     <row r="7" spans="1:44" s="2" customFormat="1" ht="3.75" customHeight="1"/>
     <row r="8" spans="1:44" s="2" customFormat="1" ht="54.75" customHeight="1">
-      <c r="W8" s="65" t="s">
+      <c r="W8" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="47"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="52"/>
+      <c r="AQ8" s="53"/>
     </row>
     <row r="9" spans="1:44" s="2" customFormat="1" ht="4.5" customHeight="1"/>
     <row r="10" spans="1:44" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="56" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="57" t="s">
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="64"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="67"/>
       <c r="W10" s="39" t="s">
         <v>0</v>
       </c>
@@ -2193,83 +2194,83 @@
       <c r="AQ10" s="41"/>
     </row>
     <row r="11" spans="1:44" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="B11" s="54">
+      <c r="B11" s="60">
         <v>1</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="48" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="58" t="s">
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="48" t="s">
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="50"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="59"/>
     </row>
     <row r="12" spans="1:44" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="42" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="3"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -2294,18 +2295,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AD6:AQ6"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="S2:AA2"/>
-    <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AD5:AQ5"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="I4:V4"/>
-    <mergeCell ref="AD4:AQ4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="I5:V5"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="B12:Q12"/>
     <mergeCell ref="D11:Q11"/>
@@ -2322,6 +2311,18 @@
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="W8:AC8"/>
+    <mergeCell ref="AD6:AQ6"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="S2:AA2"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AD5:AQ5"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="I4:V4"/>
+    <mergeCell ref="AD4:AQ4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="I5:V5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2370,56 +2371,56 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="77" t="s">
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="78" t="s">
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
       <c r="AM1" s="10"/>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
       <c r="AQ1" s="10"/>
-      <c r="AR1" s="80" t="s">
+      <c r="AR1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="79" t="s">
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
       <c r="BH1" s="10"/>
     </row>
     <row r="2" spans="1:60" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2573,70 +2574,70 @@
       <c r="BG4" s="22"/>
     </row>
     <row r="5" spans="1:60" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
       <c r="U5" s="12"/>
       <c r="V5" s="14"/>
       <c r="W5" s="12"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="74" t="s">
+      <c r="Y5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="14"/>
-      <c r="AG5" s="74" t="s">
+      <c r="AG5" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="75"/>
       <c r="AN5" s="14"/>
       <c r="AO5" s="12"/>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="12"/>
-      <c r="AR5" s="74" t="s">
+      <c r="AR5" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="74"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="75"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
       <c r="BB5" s="14"/>
       <c r="BC5" s="12"/>
       <c r="BD5" s="14"/>
@@ -2658,55 +2659,55 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
       <c r="U6" s="23"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="75" t="s">
+      <c r="Y6" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="6"/>
-      <c r="AG6" s="75" t="s">
+      <c r="AG6" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
-      <c r="AR6" s="75" t="s">
+      <c r="AR6" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="75"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="75"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
       <c r="BB6" s="6"/>
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
@@ -2716,6 +2717,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="Y6:AD6"/>
     <mergeCell ref="T1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AL1"/>
@@ -2725,12 +2732,6 @@
     <mergeCell ref="AW1:BG1"/>
     <mergeCell ref="AG5:AM5"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="Y6:AD6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -2747,7 +2748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2766,130 +2769,130 @@
   <sheetData>
     <row r="1" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="2" spans="1:40" ht="10.5" customHeight="1">
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AF2" s="81" t="s">
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AF2" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="84" t="s">
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
     </row>
     <row r="3" spans="1:40" ht="11.25" customHeight="1">
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AF3" s="85" t="s">
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AF3" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
       <c r="AL3" s="25"/>
       <c r="AM3" s="25"/>
     </row>
     <row r="4" spans="1:40" ht="5.25" customHeight="1">
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
     </row>
     <row r="5" spans="1:40" ht="6" customHeight="1"/>
     <row r="6" spans="1:40" ht="10.5" customHeight="1">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
     </row>
     <row r="7" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
       <c r="X7" s="26" t="s">
         <v>52</v>
       </c>
@@ -2909,25 +2912,25 @@
     </row>
     <row r="8" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="9" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
       <c r="X9" s="26" t="s">
         <v>54</v>
       </c>
@@ -2947,25 +2950,25 @@
     </row>
     <row r="10" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="11" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
       <c r="X11" s="26" t="s">
         <v>56</v>
       </c>
@@ -2985,66 +2988,66 @@
     </row>
     <row r="12" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="13" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="81" t="s">
+      <c r="C13" s="107"/>
+      <c r="D13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="X13" s="81" t="s">
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="X13" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="81" t="s">
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="107"/>
+      <c r="AK13" s="107"/>
     </row>
     <row r="14" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="15" spans="1:40" ht="10.5" customHeight="1">
-      <c r="X15" s="81" t="s">
+      <c r="X15" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="81" t="s">
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="107"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1"/>
     <row r="17" spans="1:40" ht="10.5" customHeight="1">
@@ -3082,159 +3085,159 @@
     </row>
     <row r="18" spans="1:40" ht="6" customHeight="1"/>
     <row r="19" spans="1:40" ht="27" customHeight="1">
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="88" t="s">
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="88" t="s">
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="113" t="s">
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="W19" s="88"/>
-      <c r="X19" s="114"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="112"/>
       <c r="Y19" s="37"/>
-      <c r="Z19" s="88" t="s">
+      <c r="Z19" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
       <c r="AC19" s="38"/>
-      <c r="AD19" s="88" t="s">
+      <c r="AD19" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="88" t="s">
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="90"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="110"/>
+      <c r="AL19" s="110"/>
+      <c r="AM19" s="110"/>
+      <c r="AN19" s="113"/>
     </row>
     <row r="20" spans="1:40" ht="11.25" customHeight="1">
       <c r="B20" s="30"/>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="94" t="s">
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="95" t="s">
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="99" t="s">
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="W20" s="100"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="95" t="s">
+      <c r="W20" s="101"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="95" t="s">
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="96"/>
-      <c r="AI20" s="105" t="s">
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="96"/>
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="105"/>
-      <c r="AM20" s="105"/>
-      <c r="AN20" s="106"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="82"/>
     </row>
     <row r="21" spans="1:40" ht="11.25" customHeight="1">
       <c r="B21" s="31"/>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="112" t="s">
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="107"/>
-      <c r="AJ21" s="107"/>
-      <c r="AK21" s="107"/>
-      <c r="AL21" s="107"/>
-      <c r="AM21" s="107"/>
-      <c r="AN21" s="108"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="84"/>
     </row>
     <row r="22" spans="1:40" ht="27" customHeight="1">
       <c r="Q22" s="32"/>
@@ -3245,20 +3248,20 @@
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
       <c r="X22" s="32"/>
-      <c r="Y22" s="115" t="s">
+      <c r="Y22" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="116"/>
-      <c r="AB22" s="116"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="112" t="s">
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="108"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="84"/>
       <c r="AI22" s="32"/>
       <c r="AJ22" s="32"/>
       <c r="AK22" s="32"/>
@@ -3280,128 +3283,128 @@
     <row r="25" spans="1:40" ht="54.75" customHeight="1"/>
     <row r="26" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="27" spans="1:40" ht="11.25" customHeight="1">
-      <c r="J27" s="83" t="s">
+      <c r="J27" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AF27" s="81" t="s">
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="107"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
+      <c r="AF27" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="84" t="s">
+      <c r="AG27" s="107"/>
+      <c r="AH27" s="107"/>
+      <c r="AI27" s="107"/>
+      <c r="AJ27" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="AK27" s="84"/>
-      <c r="AL27" s="84"/>
-      <c r="AM27" s="84"/>
-      <c r="AN27" s="84"/>
+      <c r="AK27" s="115"/>
+      <c r="AL27" s="115"/>
+      <c r="AM27" s="115"/>
+      <c r="AN27" s="115"/>
     </row>
     <row r="28" spans="1:40" ht="10.5" customHeight="1">
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AF28" s="85" t="s">
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="107"/>
+      <c r="W28" s="107"/>
+      <c r="X28" s="107"/>
+      <c r="Y28" s="107"/>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="107"/>
+      <c r="AF28" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="86"/>
-      <c r="AJ28" s="86"/>
-      <c r="AK28" s="86"/>
+      <c r="AG28" s="117"/>
+      <c r="AH28" s="117"/>
+      <c r="AI28" s="117"/>
+      <c r="AJ28" s="117"/>
+      <c r="AK28" s="117"/>
     </row>
     <row r="29" spans="1:40" ht="6" customHeight="1">
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="107"/>
     </row>
     <row r="30" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="31" spans="1:40" ht="10.5" customHeight="1">
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
     </row>
     <row r="32" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
       <c r="X32" s="26" t="s">
         <v>52</v>
       </c>
@@ -3421,25 +3424,25 @@
     </row>
     <row r="33" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="34" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
       <c r="X34" s="26" t="s">
         <v>54</v>
       </c>
@@ -3459,25 +3462,25 @@
     </row>
     <row r="35" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="36" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
       <c r="X36" s="26" t="s">
         <v>56</v>
       </c>
@@ -3497,66 +3500,66 @@
     </row>
     <row r="37" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="38" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="81" t="s">
+      <c r="C38" s="107"/>
+      <c r="D38" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="X38" s="81" t="s">
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="X38" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="Y38" s="82"/>
-      <c r="Z38" s="82"/>
-      <c r="AA38" s="81" t="s">
+      <c r="Y38" s="107"/>
+      <c r="Z38" s="107"/>
+      <c r="AA38" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="AB38" s="82"/>
-      <c r="AC38" s="82"/>
-      <c r="AD38" s="82"/>
-      <c r="AE38" s="82"/>
-      <c r="AF38" s="82"/>
-      <c r="AG38" s="82"/>
-      <c r="AH38" s="82"/>
-      <c r="AI38" s="82"/>
-      <c r="AJ38" s="82"/>
-      <c r="AK38" s="82"/>
+      <c r="AB38" s="107"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="107"/>
+      <c r="AE38" s="107"/>
+      <c r="AF38" s="107"/>
+      <c r="AG38" s="107"/>
+      <c r="AH38" s="107"/>
+      <c r="AI38" s="107"/>
+      <c r="AJ38" s="107"/>
+      <c r="AK38" s="107"/>
     </row>
     <row r="39" spans="1:40" ht="5.25" customHeight="1"/>
     <row r="40" spans="1:40" ht="11.25" customHeight="1">
-      <c r="X40" s="81" t="s">
+      <c r="X40" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="81" t="s">
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="82"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="82"/>
-      <c r="AF40" s="82"/>
-      <c r="AG40" s="82"/>
-      <c r="AH40" s="82"/>
-      <c r="AI40" s="82"/>
-      <c r="AJ40" s="82"/>
-      <c r="AK40" s="82"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="107"/>
+      <c r="AJ40" s="107"/>
+      <c r="AK40" s="107"/>
     </row>
     <row r="41" spans="1:40" ht="21.75" customHeight="1"/>
     <row r="42" spans="1:40" ht="10.5" customHeight="1">
@@ -3569,182 +3572,182 @@
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
-      <c r="T42" s="118" t="s">
+      <c r="T42" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82"/>
-      <c r="X42" s="82"/>
-      <c r="Y42" s="82"/>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="82"/>
-      <c r="AB42" s="82"/>
-      <c r="AC42" s="82"/>
-      <c r="AD42" s="82"/>
-      <c r="AE42" s="82"/>
-      <c r="AF42" s="82"/>
-      <c r="AG42" s="82"/>
-      <c r="AH42" s="82"/>
-      <c r="AI42" s="82"/>
-      <c r="AJ42" s="82"/>
-      <c r="AK42" s="82"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="107"/>
+      <c r="AI42" s="107"/>
+      <c r="AJ42" s="107"/>
+      <c r="AK42" s="107"/>
     </row>
     <row r="43" spans="1:40" ht="6" customHeight="1"/>
     <row r="44" spans="1:40" ht="27" customHeight="1">
       <c r="B44" s="36"/>
-      <c r="C44" s="88" t="s">
+      <c r="C44" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
       <c r="K44" s="38"/>
-      <c r="L44" s="113" t="s">
+      <c r="L44" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="113" t="s">
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="114"/>
-      <c r="V44" s="113" t="s">
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="112"/>
+      <c r="V44" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="W44" s="88"/>
-      <c r="X44" s="114"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="112"/>
       <c r="Y44" s="37"/>
-      <c r="Z44" s="88" t="s">
+      <c r="Z44" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
+      <c r="AA44" s="110"/>
+      <c r="AB44" s="110"/>
       <c r="AC44" s="38"/>
       <c r="AD44" s="37"/>
-      <c r="AE44" s="88" t="s">
+      <c r="AE44" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="AF44" s="89"/>
-      <c r="AG44" s="89"/>
+      <c r="AF44" s="110"/>
+      <c r="AG44" s="110"/>
       <c r="AH44" s="38"/>
       <c r="AI44" s="37"/>
-      <c r="AJ44" s="88" t="s">
+      <c r="AJ44" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="AK44" s="89"/>
-      <c r="AL44" s="89"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="90"/>
+      <c r="AK44" s="110"/>
+      <c r="AL44" s="110"/>
+      <c r="AM44" s="110"/>
+      <c r="AN44" s="113"/>
     </row>
     <row r="45" spans="1:40" ht="10.5" customHeight="1">
       <c r="B45" s="30"/>
-      <c r="C45" s="91" t="s">
+      <c r="C45" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="94" t="s">
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="95" t="s">
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="99" t="s">
+      <c r="R45" s="96"/>
+      <c r="S45" s="96"/>
+      <c r="T45" s="96"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="W45" s="100"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="95" t="s">
+      <c r="W45" s="101"/>
+      <c r="X45" s="102"/>
+      <c r="Y45" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="96"/>
-      <c r="AD45" s="95" t="s">
+      <c r="Z45" s="96"/>
+      <c r="AA45" s="96"/>
+      <c r="AB45" s="96"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="96"/>
-      <c r="AI45" s="105" t="s">
+      <c r="AE45" s="96"/>
+      <c r="AF45" s="96"/>
+      <c r="AG45" s="96"/>
+      <c r="AH45" s="97"/>
+      <c r="AI45" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AJ45" s="105"/>
-      <c r="AK45" s="105"/>
-      <c r="AL45" s="105"/>
-      <c r="AM45" s="105"/>
-      <c r="AN45" s="106"/>
+      <c r="AJ45" s="81"/>
+      <c r="AK45" s="81"/>
+      <c r="AL45" s="81"/>
+      <c r="AM45" s="81"/>
+      <c r="AN45" s="82"/>
     </row>
     <row r="46" spans="1:40" ht="11.25" customHeight="1">
       <c r="B46" s="31"/>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="112" t="s">
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="M46" s="112"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="97"/>
-      <c r="S46" s="97"/>
-      <c r="T46" s="97"/>
-      <c r="U46" s="98"/>
-      <c r="V46" s="102"/>
-      <c r="W46" s="103"/>
-      <c r="X46" s="104"/>
-      <c r="Y46" s="97"/>
-      <c r="Z46" s="97"/>
-      <c r="AA46" s="97"/>
-      <c r="AB46" s="97"/>
-      <c r="AC46" s="98"/>
-      <c r="AD46" s="97"/>
-      <c r="AE46" s="97"/>
-      <c r="AF46" s="97"/>
-      <c r="AG46" s="97"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="107"/>
-      <c r="AJ46" s="107"/>
-      <c r="AK46" s="107"/>
-      <c r="AL46" s="107"/>
-      <c r="AM46" s="107"/>
-      <c r="AN46" s="108"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="98"/>
+      <c r="S46" s="98"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="103"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="105"/>
+      <c r="Y46" s="98"/>
+      <c r="Z46" s="98"/>
+      <c r="AA46" s="98"/>
+      <c r="AB46" s="98"/>
+      <c r="AC46" s="99"/>
+      <c r="AD46" s="98"/>
+      <c r="AE46" s="98"/>
+      <c r="AF46" s="98"/>
+      <c r="AG46" s="98"/>
+      <c r="AH46" s="99"/>
+      <c r="AI46" s="83"/>
+      <c r="AJ46" s="83"/>
+      <c r="AK46" s="83"/>
+      <c r="AL46" s="83"/>
+      <c r="AM46" s="83"/>
+      <c r="AN46" s="84"/>
     </row>
     <row r="47" spans="1:40" ht="27" customHeight="1">
       <c r="Q47" s="32"/>
@@ -3755,20 +3758,20 @@
       <c r="V47" s="32"/>
       <c r="W47" s="32"/>
       <c r="X47" s="32"/>
-      <c r="Y47" s="115" t="s">
+      <c r="Y47" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="Z47" s="116"/>
-      <c r="AA47" s="116"/>
-      <c r="AB47" s="116"/>
-      <c r="AC47" s="117"/>
-      <c r="AD47" s="112" t="s">
+      <c r="Z47" s="90"/>
+      <c r="AA47" s="90"/>
+      <c r="AB47" s="90"/>
+      <c r="AC47" s="91"/>
+      <c r="AD47" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="AE47" s="107"/>
-      <c r="AF47" s="107"/>
-      <c r="AG47" s="107"/>
-      <c r="AH47" s="108"/>
+      <c r="AE47" s="83"/>
+      <c r="AF47" s="83"/>
+      <c r="AG47" s="83"/>
+      <c r="AH47" s="84"/>
       <c r="AI47" s="32"/>
       <c r="AJ47" s="32"/>
       <c r="AK47" s="32"/>
@@ -3790,40 +3793,19 @@
     <row r="50" spans="33:40" ht="7.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AI45:AN46"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="Y47:AC47"/>
-    <mergeCell ref="AD47:AH47"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="Q45:U46"/>
-    <mergeCell ref="V45:X46"/>
-    <mergeCell ref="Y45:AC46"/>
-    <mergeCell ref="AD45:AH46"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AK40"/>
-    <mergeCell ref="T42:AK42"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AE44:AG44"/>
-    <mergeCell ref="AJ44:AN44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:R38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AK38"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="J27:AA29"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AJ27:AN27"/>
-    <mergeCell ref="AF28:AK28"/>
-    <mergeCell ref="B31:R32"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AK15"/>
+    <mergeCell ref="J2:AA4"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AF3:AK3"/>
+    <mergeCell ref="B6:R7"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AK13"/>
     <mergeCell ref="AI19:AN19"/>
     <mergeCell ref="C20:K20"/>
     <mergeCell ref="L20:P20"/>
@@ -3840,19 +3822,40 @@
     <mergeCell ref="V19:X19"/>
     <mergeCell ref="Z19:AB19"/>
     <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AK15"/>
-    <mergeCell ref="J2:AA4"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AF3:AK3"/>
-    <mergeCell ref="B6:R7"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AK13"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:R38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AK38"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="J27:AA29"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AJ27:AN27"/>
+    <mergeCell ref="AF28:AK28"/>
+    <mergeCell ref="B31:R32"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AK40"/>
+    <mergeCell ref="T42:AK42"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AE44:AG44"/>
+    <mergeCell ref="AJ44:AN44"/>
+    <mergeCell ref="AI45:AN46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="Y47:AC47"/>
+    <mergeCell ref="AD47:AH47"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="Q45:U46"/>
+    <mergeCell ref="V45:X46"/>
+    <mergeCell ref="Y45:AC46"/>
+    <mergeCell ref="AD45:AH46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
